--- a/excels/test-rowsbean3.xlsx
+++ b/excels/test-rowsbean3.xlsx
@@ -117,33 +117,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="B1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="B1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="2">
+      <c r="B2" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="D2" t="s" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="B3" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="D3" t="s" s="2">
         <v>5</v>
       </c>
     </row>

--- a/excels/test-rowsbean3.xlsx
+++ b/excels/test-rowsbean3.xlsx
@@ -117,33 +117,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B1:D3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="s" s="1">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2" t="s" s="2">
+      <c r="A2" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="B2" t="s" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="s" s="2">
+      <c r="A3" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="B3" t="s" s="2">
         <v>5</v>
       </c>
     </row>
